--- a/dnd sheets.xlsx
+++ b/dnd sheets.xlsx
@@ -26,73 +26,124 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="114">
   <si>
+    <t>Aderyn Taran</t>
+  </si>
+  <si>
+    <t>Female Human</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>Bard</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Initiative</t>
+  </si>
+  <si>
+    <t>Dexterity</t>
+  </si>
+  <si>
+    <t>Prof Bonus</t>
+  </si>
+  <si>
+    <t>Constitution</t>
+  </si>
+  <si>
+    <t>Armour Prof</t>
+  </si>
+  <si>
+    <t>Light Armor</t>
+  </si>
+  <si>
+    <t>Intelligence</t>
+  </si>
+  <si>
+    <t>Astrael</t>
+  </si>
+  <si>
     <t>Oysoy Baeshra</t>
   </si>
   <si>
     <t>Male Lizardfolk</t>
   </si>
   <si>
+    <t>Weapon Prof</t>
+  </si>
+  <si>
+    <t>Male Half-Elf</t>
+  </si>
+  <si>
     <t>Level 5</t>
   </si>
   <si>
+    <t>Crossbow, Hand, Longsword, Rapier, Shortsword, Simple Weapons</t>
+  </si>
+  <si>
     <t>Ranger</t>
   </si>
   <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>Initiative</t>
-  </si>
-  <si>
-    <t>Dexterity</t>
-  </si>
-  <si>
-    <t>Prof Bonus</t>
-  </si>
-  <si>
-    <t>Constitution</t>
-  </si>
-  <si>
-    <t>Armour Prof</t>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>Wisdom</t>
+  </si>
+  <si>
+    <t>Tool Prof</t>
+  </si>
+  <si>
+    <t>Bagpipes, Cartographer's Tools, Dulcimer, Lute, Lyre, Viol</t>
+  </si>
+  <si>
+    <t>Charisma</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>Celestial, Common</t>
+  </si>
+  <si>
+    <t>Acrobatics</t>
   </si>
   <si>
     <t>Light Armor, Medium Armor, Shields</t>
   </si>
   <si>
-    <t>Intelligence</t>
-  </si>
-  <si>
-    <t>Weapon Prof</t>
+    <t>Image Url</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/467509886272667649/492177401221087232/unknown.png</t>
+  </si>
+  <si>
+    <t>Crossbow, Light, Dagger, Dart, Quarterstaff, Sling</t>
   </si>
   <si>
     <t>Martial Weapons, Simple Weapons</t>
   </si>
   <si>
-    <t>Wisdom</t>
-  </si>
-  <si>
-    <t>Tool Prof</t>
-  </si>
-  <si>
     <t>Playing Card Set</t>
   </si>
   <si>
-    <t>Charisma</t>
-  </si>
-  <si>
-    <t>Languages</t>
-  </si>
-  <si>
     <t>Common, Draconic, Dwarvish, Elvish</t>
   </si>
   <si>
-    <t>Acrobatics</t>
-  </si>
-  <si>
-    <t>Image Url</t>
-  </si>
-  <si>
-    <t>https://media.discordapp.net/attachments/462125630067310593/495750543420162068/Oysoy_Frilled.png</t>
+    <t>https://cdn.discordapp.com/attachments/467509886272667649/535980251264712704/SgOysoy.gif</t>
+  </si>
+  <si>
+    <t>Calligrapher's Supplies</t>
+  </si>
+  <si>
+    <t>Common, Dwarvish, Elvish, Gnomish</t>
+  </si>
+  <si>
+    <t>https://media.discordapp.net/attachments/428010154743693312/431658918905905152/389d6c4da8c5cf626d6443ef7a3ed49a.png</t>
   </si>
   <si>
     <t>Animal Handling</t>
@@ -152,105 +203,54 @@
     <t>Survival</t>
   </si>
   <si>
-    <t>Astrael</t>
-  </si>
-  <si>
-    <t>Male Half-Elf</t>
-  </si>
-  <si>
-    <t>Wizard</t>
-  </si>
-  <si>
-    <t>Aderyn Taran</t>
-  </si>
-  <si>
-    <t>Female Human</t>
-  </si>
-  <si>
-    <t>Level 4</t>
-  </si>
-  <si>
-    <t>Bard</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Crossbow, Light, Dagger, Dart, Quarterstaff, Sling</t>
-  </si>
-  <si>
-    <t>Light Armor</t>
-  </si>
-  <si>
-    <t>Crossbow, Hand, Longsword, Rapier, Shortsword, Simple Weapons</t>
-  </si>
-  <si>
-    <t>Bagpipes, Cartographer's Tools, Dulcimer, Lute, Lyre, Viol</t>
-  </si>
-  <si>
-    <t>Celestial, Common</t>
-  </si>
-  <si>
-    <t>Calligrapher's Supplies</t>
-  </si>
-  <si>
-    <t>Common, Dwarvish, Elvish, Gnomish</t>
-  </si>
-  <si>
-    <t>https://cdn.discordapp.com/attachments/467509886272667649/492177401221087232/unknown.png</t>
-  </si>
-  <si>
-    <t>https://media.discordapp.net/attachments/428010154743693312/431658918905905152/389d6c4da8c5cf626d6443ef7a3ed49a.png</t>
-  </si>
-  <si>
     <t>Gil Velasques (No Access)</t>
   </si>
   <si>
+    <t>Jura (Jinx) Quiakide</t>
+  </si>
+  <si>
+    <t>Dei Keenfall</t>
+  </si>
+  <si>
     <t>Variant Human</t>
   </si>
   <si>
+    <t>Female Goliath</t>
+  </si>
+  <si>
     <t>Rogue</t>
   </si>
   <si>
+    <t>Barbarian</t>
+  </si>
+  <si>
+    <t>Monk</t>
+  </si>
+  <si>
+    <t>Drum</t>
+  </si>
+  <si>
     <t>Horn, Playing Card Set, Thieves' Tools</t>
   </si>
   <si>
+    <t>Common, Giant, Primordial</t>
+  </si>
+  <si>
+    <t>Shortsword, Simple Weapons</t>
+  </si>
+  <si>
     <t>Common, Elvish</t>
   </si>
   <si>
+    <t>Celestial, Common, Dwarvish, Elvish</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/273923620663721984/493564004682301471/Galatest1_LI.jpg</t>
+  </si>
+  <si>
     <t>https://media.discordapp.net/attachments/428010154743693312/434219295338135562/e1befe22debd749ee324361d7534f377.jpg</t>
   </si>
   <si>
-    <t>Jura (Jinx) Quiakide</t>
-  </si>
-  <si>
-    <t>Female Goliath</t>
-  </si>
-  <si>
-    <t>Barbarian</t>
-  </si>
-  <si>
-    <t>Drum</t>
-  </si>
-  <si>
-    <t>Common, Giant, Primordial</t>
-  </si>
-  <si>
-    <t>https://cdn.discordapp.com/attachments/273923620663721984/493564004682301471/Galatest1_LI.jpg</t>
-  </si>
-  <si>
-    <t>Dei Keenfall</t>
-  </si>
-  <si>
-    <t>Monk</t>
-  </si>
-  <si>
-    <t>Shortsword, Simple Weapons</t>
-  </si>
-  <si>
-    <t>Celestial, Common, Dwarvish, Elvish</t>
-  </si>
-  <si>
     <t>https://cdn.discordapp.com/attachments/428010154743693312/475762798022885407/mauve3_2.jpg</t>
   </si>
   <si>
@@ -269,37 +269,55 @@
     <t>https://media.discordapp.net/attachments/428010154743693312/465613463180541952/Toshi_Portrait.png</t>
   </si>
   <si>
+    <t>Mira Cindryn (NO ACCESS)</t>
+  </si>
+  <si>
+    <t>Female Wizard</t>
+  </si>
+  <si>
     <t>Naias (NO ACCESS)</t>
   </si>
   <si>
     <t>Cleric</t>
   </si>
   <si>
+    <t>Cartographer's Tools</t>
+  </si>
+  <si>
     <t>Simple Weapons</t>
   </si>
   <si>
+    <t>Celestial, Common, Dwarvish</t>
+  </si>
+  <si>
     <t>Alchemist's Supplies</t>
   </si>
   <si>
     <t>Common, Dwarvish</t>
   </si>
   <si>
+    <t>https://media.discordapp.net/attachments/262830286331445248/492766227459211274/Mira_Mira.jpg</t>
+  </si>
+  <si>
     <t>https://media.discordapp.net/attachments/262830286331445248/492767397758107658/2.jpg</t>
   </si>
   <si>
-    <t>Mira Cindryn (NO ACCESS)</t>
-  </si>
-  <si>
-    <t>Female Wizard</t>
-  </si>
-  <si>
-    <t>Cartographer's Tools</t>
-  </si>
-  <si>
-    <t>Celestial, Common, Dwarvish</t>
-  </si>
-  <si>
-    <t>https://media.discordapp.net/attachments/262830286331445248/492766227459211274/Mira_Mira.jpg</t>
+    <t>Shadow Whisper (Shadow)</t>
+  </si>
+  <si>
+    <t>Tabaxi</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Disguise Kit, Forgery Kit, Thieves' Tools</t>
+  </si>
+  <si>
+    <t>Common, Draconic</t>
+  </si>
+  <si>
+    <t>https://d.facdn.net/art/malawach/1512010827/1512010827.malawach_silentdust_v07_75p.png</t>
   </si>
   <si>
     <t>Queequeg</t>
@@ -308,9 +326,6 @@
     <t>Tortle</t>
   </si>
   <si>
-    <t>Level 3</t>
-  </si>
-  <si>
     <t>Israh Sin</t>
   </si>
   <si>
@@ -335,37 +350,22 @@
     <t>https://cdn.discordapp.com/attachments/462125630067310593/509102421398519808/Israh.png</t>
   </si>
   <si>
-    <t>Shadow Whisper (Shadow)</t>
-  </si>
-  <si>
-    <t>Tabaxi</t>
-  </si>
-  <si>
-    <t>Disguise Kit, Forgery Kit, Thieves' Tools</t>
-  </si>
-  <si>
-    <t>Common, Draconic</t>
-  </si>
-  <si>
-    <t>https://d.facdn.net/art/malawach/1512010827/1512010827.malawach_silentdust_v07_75p.png</t>
+    <t>Raenari</t>
+  </si>
+  <si>
+    <t>Common, Elvish, Giant</t>
+  </si>
+  <si>
+    <t>https://media-waterdeep.cursecdn.com/avatars/thumbnails/4790/251/150/194/636768028722530030.png</t>
   </si>
   <si>
     <t>Sud</t>
   </si>
   <si>
-    <t>Raenari</t>
-  </si>
-  <si>
     <t>Golliath</t>
   </si>
   <si>
-    <t>Common, Elvish, Giant</t>
-  </si>
-  <si>
     <t>https://media-waterdeep.cursecdn.com/avatars/thumbnails/6/342/420/618/636272680339895080.png</t>
-  </si>
-  <si>
-    <t>https://media-waterdeep.cursecdn.com/avatars/thumbnails/4790/251/150/194/636768028722530030.png</t>
   </si>
 </sst>
 </file>
@@ -380,14 +380,14 @@
     </font>
     <font/>
     <font>
+      <color rgb="FF000000"/>
+      <name val="&quot;Roboto Condensed&quot;"/>
+    </font>
+    <font>
       <u/>
       <sz val="10.0"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="&quot;Roboto Condensed&quot;"/>
     </font>
     <font>
       <u/>
@@ -515,16 +515,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -566,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -577,71 +577,71 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>1.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>2.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>4.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>4.0</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>2.0</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>1.0</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>1.0</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>1.0</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
         <v>4.0</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>4.0</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1">
         <v>1.0</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>4.0</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>1.0</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1">
         <v>1.0</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1">
         <v>1.0</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1">
         <v>1.0</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1">
         <v>2.0</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1">
         <v>5.0</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1">
         <v>4.0</v>
@@ -787,16 +787,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
@@ -838,7 +838,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -849,71 +849,71 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>1.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>5.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>1.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>0.0</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>1.0</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>3.0</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>0.0</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>1.0</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
         <v>1.0</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>2.0</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1">
         <v>1.0</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>0.0</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>3.0</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1">
         <v>1.0</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1">
         <v>3.0</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1">
         <v>0.0</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1">
         <v>5.0</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1">
         <v>7.0</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1">
         <v>1.0</v>
@@ -1059,16 +1059,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
@@ -1121,57 +1121,57 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>3.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>0.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>0.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>3.0</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>0.0</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>2.0</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>0.0</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>0.0</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>5.0</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
         <v>0.0</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>0.0</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1">
         <v>5.0</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>0.0</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>5.0</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1">
         <v>0.0</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1">
         <v>0.0</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1">
         <v>2.0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1">
         <v>0.0</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1">
         <v>0.0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1">
         <v>5.0</v>
@@ -1325,16 +1325,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
@@ -1387,57 +1387,57 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>3.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>0.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>2.0</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>0.0</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>3.0</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>3.0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>0.0</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>0.0</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
         <v>5.0</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>0.0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1">
         <v>0.0</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>0.0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>0.0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1">
         <v>3.0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1">
         <v>5.0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1">
         <v>0.0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1">
         <v>0.0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1">
         <v>0.0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1">
         <v>2.0</v>
@@ -1591,16 +1591,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -1653,57 +1653,57 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>-1.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>2.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>3.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>-1.0</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>-1.0</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>2.0</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>5.0</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>1.0</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
         <v>2.0</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>3.0</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1">
         <v>1.0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>3.0</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>-1.0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1">
         <v>2.0</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1">
         <v>4.0</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1">
         <v>3.0</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1">
         <v>3.0</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1">
         <v>3.0</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1">
         <v>1.0</v>
@@ -1857,16 +1857,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
@@ -1908,7 +1908,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1919,57 +1919,57 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>0.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>0.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>0.0</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>0.0</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>0.0</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>0.0</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>0.0</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>0.0</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
         <v>0.0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>0.0</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1">
         <v>0.0</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>0.0</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>0.0</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1">
         <v>0.0</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1">
         <v>0.0</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1">
         <v>0.0</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1">
         <v>0.0</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1">
         <v>0.0</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1">
         <v>0.0</v>
@@ -2123,16 +2123,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -2174,7 +2174,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -2185,57 +2185,57 @@
         <v>4.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>3.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>2.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>0.0</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>4.0</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>-1.0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>3.0</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>4.0</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>3.0</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
         <v>3.0</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>7.0</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1">
         <v>0.0</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>4.0</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>3.0</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1">
         <v>3.0</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1">
         <v>6.0</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1">
         <v>4.0</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1">
         <v>2.0</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1">
         <v>2.0</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1">
         <v>0.0</v>
@@ -2389,16 +2389,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -2440,7 +2440,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2451,57 +2451,57 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>4.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>5.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>1.0</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>2.0</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>7.0</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>1.0</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>6.0</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
         <v>5.0</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>3.0</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1">
         <v>1.0</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>1.0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>3.0</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1">
         <v>7.0</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1">
         <v>10.0</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1">
         <v>1.0</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1">
         <v>3.0</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1">
         <v>3.0</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1">
         <v>1.0</v>
@@ -2655,16 +2655,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
@@ -2706,7 +2706,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -2717,49 +2717,49 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>3.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>0.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>7.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>75</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>3.0</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>0.0</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>0.0</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>0.0</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>0.0</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>6.0</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
         <v>0.0</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>0.0</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1">
         <v>3.0</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>0.0</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>6.0</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1">
         <v>0.0</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1">
         <v>0.0</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1">
         <v>3.0</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1">
         <v>4.0</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1">
         <v>4.0</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1">
         <v>3.0</v>
@@ -2924,13 +2924,13 @@
         <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
@@ -2972,7 +2972,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2983,57 +2983,57 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>5.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>0.0</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>0.0</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>3.0</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>3.0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>0.0</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>2.0</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
         <v>1.0</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>2.0</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1">
         <v>0.0</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>0.0</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>2.0</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1">
         <v>1.0</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1">
         <v>1.0</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1">
         <v>0.0</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1">
         <v>3.0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1">
         <v>7.0</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1">
         <v>0.0</v>
@@ -3187,16 +3187,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -3238,7 +3238,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -3249,35 +3249,35 @@
         <v>-1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>1.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>0.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>69</v>
@@ -3285,21 +3285,21 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>2.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>1.0</v>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>-1.0</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>6.0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>0.0</v>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>-1.0</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>1.0</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
         <v>3.0</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>-1.0</v>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1">
         <v>1.0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>2.0</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>4.0</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1">
         <v>0.0</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1">
         <v>0.0</v>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1">
         <v>-1.0</v>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1">
         <v>2.0</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1">
         <v>2.0</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1">
         <v>4.0</v>
@@ -3456,10 +3456,10 @@
         <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
@@ -3515,21 +3515,21 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>79</v>
@@ -3537,27 +3537,27 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>7.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>80</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>0.0</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>0.0</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>4.0</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>1.0</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>0.0</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>0.0</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
         <v>4.0</v>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>0.0</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1">
         <v>0.0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>0.0</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>3.0</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1">
         <v>1.0</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1">
         <v>1.0</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1">
         <v>0.0</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1">
         <v>4.0</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1">
         <v>4.0</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1">
         <v>0.0</v>
@@ -3719,16 +3719,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
@@ -3781,57 +3781,57 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>3.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>-1.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>3.0</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>2.0</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>-1.0</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>1.0</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>4.0</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>5.0</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
         <v>1.0</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>2.0</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1">
         <v>5.0</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>2.0</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>5.0</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1">
         <v>1.0</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1">
         <v>1.0</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1">
         <v>2.0</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1">
         <v>-1.0</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1">
         <v>-1.0</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1">
         <v>3.0</v>
@@ -3985,16 +3985,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -4036,7 +4036,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -4047,57 +4047,57 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>3.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>-1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>3.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>3.0</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>5.0</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>-1.0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>-1.0</v>
@@ -4129,7 +4129,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>5.0</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>3.0</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
         <v>-1.0</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>5.0</v>
@@ -4161,7 +4161,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1">
         <v>3.0</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>3.0</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1">
         <v>3.0</v>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1">
         <v>-1.0</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1">
         <v>-1.0</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1">
         <v>3.0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1">
         <v>3.0</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1">
         <v>3.0</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1">
         <v>5.0</v>

--- a/dnd sheets.xlsx
+++ b/dnd sheets.xlsx
@@ -26,6 +26,141 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="114">
   <si>
+    <t>Oysoy Baeshra</t>
+  </si>
+  <si>
+    <t>Male Lizardfolk</t>
+  </si>
+  <si>
+    <t>Level 5</t>
+  </si>
+  <si>
+    <t>Ranger</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Initiative</t>
+  </si>
+  <si>
+    <t>Dexterity</t>
+  </si>
+  <si>
+    <t>Prof Bonus</t>
+  </si>
+  <si>
+    <t>Constitution</t>
+  </si>
+  <si>
+    <t>Armour Prof</t>
+  </si>
+  <si>
+    <t>Light Armor, Medium Armor, Shields</t>
+  </si>
+  <si>
+    <t>Intelligence</t>
+  </si>
+  <si>
+    <t>Weapon Prof</t>
+  </si>
+  <si>
+    <t>Martial Weapons, Simple Weapons</t>
+  </si>
+  <si>
+    <t>Wisdom</t>
+  </si>
+  <si>
+    <t>Tool Prof</t>
+  </si>
+  <si>
+    <t>Playing Card Set</t>
+  </si>
+  <si>
+    <t>Charisma</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>Common, Draconic, Dwarvish, Elvish</t>
+  </si>
+  <si>
+    <t>Acrobatics</t>
+  </si>
+  <si>
+    <t>Image Url</t>
+  </si>
+  <si>
+    <t>https://media.discordapp.net/attachments/462125630067310593/495750543420162068/Oysoy_Frilled.png</t>
+  </si>
+  <si>
+    <t>Animal Handling</t>
+  </si>
+  <si>
+    <t>Color (in Hex)</t>
+  </si>
+  <si>
+    <t>2CFF35</t>
+  </si>
+  <si>
+    <t>Arcana</t>
+  </si>
+  <si>
+    <t>Athletics</t>
+  </si>
+  <si>
+    <t>Deception</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Insight</t>
+  </si>
+  <si>
+    <t>Intimidation</t>
+  </si>
+  <si>
+    <t>Investigation</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Perception</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Persuasion</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Slight of Hand</t>
+  </si>
+  <si>
+    <t>Stealth</t>
+  </si>
+  <si>
+    <t>Survival</t>
+  </si>
+  <si>
+    <t>Astrael</t>
+  </si>
+  <si>
+    <t>Male Half-Elf</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
     <t>Aderyn Taran</t>
   </si>
   <si>
@@ -38,219 +173,84 @@
     <t>Bard</t>
   </si>
   <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>Initiative</t>
-  </si>
-  <si>
-    <t>Dexterity</t>
-  </si>
-  <si>
-    <t>Prof Bonus</t>
-  </si>
-  <si>
-    <t>Constitution</t>
-  </si>
-  <si>
-    <t>Armour Prof</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Crossbow, Light, Dagger, Dart, Quarterstaff, Sling</t>
   </si>
   <si>
     <t>Light Armor</t>
   </si>
   <si>
-    <t>Intelligence</t>
-  </si>
-  <si>
-    <t>Astrael</t>
-  </si>
-  <si>
-    <t>Oysoy Baeshra</t>
-  </si>
-  <si>
-    <t>Male Lizardfolk</t>
-  </si>
-  <si>
-    <t>Weapon Prof</t>
-  </si>
-  <si>
-    <t>Male Half-Elf</t>
-  </si>
-  <si>
-    <t>Level 5</t>
-  </si>
-  <si>
     <t>Crossbow, Hand, Longsword, Rapier, Shortsword, Simple Weapons</t>
   </si>
   <si>
-    <t>Ranger</t>
-  </si>
-  <si>
-    <t>Wizard</t>
-  </si>
-  <si>
-    <t>Wisdom</t>
-  </si>
-  <si>
-    <t>Tool Prof</t>
-  </si>
-  <si>
     <t>Bagpipes, Cartographer's Tools, Dulcimer, Lute, Lyre, Viol</t>
   </si>
   <si>
-    <t>Charisma</t>
-  </si>
-  <si>
-    <t>Languages</t>
-  </si>
-  <si>
     <t>Celestial, Common</t>
   </si>
   <si>
-    <t>Acrobatics</t>
-  </si>
-  <si>
-    <t>Light Armor, Medium Armor, Shields</t>
-  </si>
-  <si>
-    <t>Image Url</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>Calligrapher's Supplies</t>
+  </si>
+  <si>
+    <t>Common, Dwarvish, Elvish, Gnomish</t>
   </si>
   <si>
     <t>https://cdn.discordapp.com/attachments/467509886272667649/492177401221087232/unknown.png</t>
   </si>
   <si>
-    <t>Crossbow, Light, Dagger, Dart, Quarterstaff, Sling</t>
-  </si>
-  <si>
-    <t>Martial Weapons, Simple Weapons</t>
-  </si>
-  <si>
-    <t>Playing Card Set</t>
-  </si>
-  <si>
-    <t>Common, Draconic, Dwarvish, Elvish</t>
-  </si>
-  <si>
-    <t>https://cdn.discordapp.com/attachments/467509886272667649/535980251264712704/SgOysoy.gif</t>
-  </si>
-  <si>
-    <t>Calligrapher's Supplies</t>
-  </si>
-  <si>
-    <t>Common, Dwarvish, Elvish, Gnomish</t>
-  </si>
-  <si>
     <t>https://media.discordapp.net/attachments/428010154743693312/431658918905905152/389d6c4da8c5cf626d6443ef7a3ed49a.png</t>
   </si>
   <si>
-    <t>Animal Handling</t>
-  </si>
-  <si>
-    <t>Color (in Hex)</t>
-  </si>
-  <si>
-    <t>2CFF35</t>
-  </si>
-  <si>
-    <t>Arcana</t>
-  </si>
-  <si>
-    <t>Athletics</t>
-  </si>
-  <si>
-    <t>Deception</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Insight</t>
-  </si>
-  <si>
-    <t>Intimidation</t>
-  </si>
-  <si>
-    <t>Investigation</t>
-  </si>
-  <si>
-    <t>Medicine</t>
-  </si>
-  <si>
-    <t>Nature</t>
-  </si>
-  <si>
-    <t>Perception</t>
-  </si>
-  <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <t>Persuasion</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Slight of Hand</t>
-  </si>
-  <si>
-    <t>Stealth</t>
-  </si>
-  <si>
-    <t>Survival</t>
-  </si>
-  <si>
     <t>Gil Velasques (No Access)</t>
   </si>
   <si>
+    <t>Variant Human</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>Horn, Playing Card Set, Thieves' Tools</t>
+  </si>
+  <si>
+    <t>Common, Elvish</t>
+  </si>
+  <si>
+    <t>https://media.discordapp.net/attachments/428010154743693312/434219295338135562/e1befe22debd749ee324361d7534f377.jpg</t>
+  </si>
+  <si>
     <t>Jura (Jinx) Quiakide</t>
   </si>
   <si>
+    <t>Female Goliath</t>
+  </si>
+  <si>
+    <t>Barbarian</t>
+  </si>
+  <si>
+    <t>Drum</t>
+  </si>
+  <si>
+    <t>Common, Giant, Primordial</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/273923620663721984/493564004682301471/Galatest1_LI.jpg</t>
+  </si>
+  <si>
     <t>Dei Keenfall</t>
   </si>
   <si>
-    <t>Variant Human</t>
-  </si>
-  <si>
-    <t>Female Goliath</t>
-  </si>
-  <si>
-    <t>Rogue</t>
-  </si>
-  <si>
-    <t>Barbarian</t>
-  </si>
-  <si>
     <t>Monk</t>
   </si>
   <si>
-    <t>Drum</t>
-  </si>
-  <si>
-    <t>Horn, Playing Card Set, Thieves' Tools</t>
-  </si>
-  <si>
-    <t>Common, Giant, Primordial</t>
-  </si>
-  <si>
     <t>Shortsword, Simple Weapons</t>
   </si>
   <si>
-    <t>Common, Elvish</t>
-  </si>
-  <si>
     <t>Celestial, Common, Dwarvish, Elvish</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/273923620663721984/493564004682301471/Galatest1_LI.jpg</t>
-  </si>
-  <si>
-    <t>https://media.discordapp.net/attachments/428010154743693312/434219295338135562/e1befe22debd749ee324361d7534f377.jpg</t>
-  </si>
-  <si>
     <t>https://cdn.discordapp.com/attachments/428010154743693312/475762798022885407/mauve3_2.jpg</t>
   </si>
   <si>
@@ -269,37 +269,70 @@
     <t>https://media.discordapp.net/attachments/428010154743693312/465613463180541952/Toshi_Portrait.png</t>
   </si>
   <si>
+    <t>Naias (NO ACCESS)</t>
+  </si>
+  <si>
+    <t>Cleric</t>
+  </si>
+  <si>
+    <t>Simple Weapons</t>
+  </si>
+  <si>
+    <t>Alchemist's Supplies</t>
+  </si>
+  <si>
+    <t>Common, Dwarvish</t>
+  </si>
+  <si>
+    <t>https://media.discordapp.net/attachments/262830286331445248/492767397758107658/2.jpg</t>
+  </si>
+  <si>
     <t>Mira Cindryn (NO ACCESS)</t>
   </si>
   <si>
     <t>Female Wizard</t>
   </si>
   <si>
-    <t>Naias (NO ACCESS)</t>
-  </si>
-  <si>
-    <t>Cleric</t>
-  </si>
-  <si>
     <t>Cartographer's Tools</t>
   </si>
   <si>
-    <t>Simple Weapons</t>
-  </si>
-  <si>
     <t>Celestial, Common, Dwarvish</t>
   </si>
   <si>
-    <t>Alchemist's Supplies</t>
-  </si>
-  <si>
-    <t>Common, Dwarvish</t>
-  </si>
-  <si>
     <t>https://media.discordapp.net/attachments/262830286331445248/492766227459211274/Mira_Mira.jpg</t>
   </si>
   <si>
-    <t>https://media.discordapp.net/attachments/262830286331445248/492767397758107658/2.jpg</t>
+    <t>Queequeg</t>
+  </si>
+  <si>
+    <t>Tortle</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Israh Sin</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Paladin</t>
+  </si>
+  <si>
+    <t>Aquan, Common</t>
+  </si>
+  <si>
+    <t>https://media-waterdeep.cursecdn.com/avatars/thumbnails/43/518/150/150/636419457094681703.jpeg</t>
+  </si>
+  <si>
+    <t>Vehicles (Land), Woodcarver's Tools</t>
+  </si>
+  <si>
+    <t>Common, Celestial</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/462125630067310593/509102421398519808/Israh.png</t>
   </si>
   <si>
     <t>Shadow Whisper (Shadow)</t>
@@ -308,9 +341,6 @@
     <t>Tabaxi</t>
   </si>
   <si>
-    <t>Level 3</t>
-  </si>
-  <si>
     <t>Disguise Kit, Forgery Kit, Thieves' Tools</t>
   </si>
   <si>
@@ -320,52 +350,22 @@
     <t>https://d.facdn.net/art/malawach/1512010827/1512010827.malawach_silentdust_v07_75p.png</t>
   </si>
   <si>
-    <t>Queequeg</t>
-  </si>
-  <si>
-    <t>Tortle</t>
-  </si>
-  <si>
-    <t>Israh Sin</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
-    <t>Paladin</t>
-  </si>
-  <si>
-    <t>Aquan, Common</t>
-  </si>
-  <si>
-    <t>https://media-waterdeep.cursecdn.com/avatars/thumbnails/43/518/150/150/636419457094681703.jpeg</t>
-  </si>
-  <si>
-    <t>Vehicles (Land), Woodcarver's Tools</t>
-  </si>
-  <si>
-    <t>Common, Celestial</t>
-  </si>
-  <si>
-    <t>https://cdn.discordapp.com/attachments/462125630067310593/509102421398519808/Israh.png</t>
+    <t>Sud</t>
   </si>
   <si>
     <t>Raenari</t>
   </si>
   <si>
+    <t>Golliath</t>
+  </si>
+  <si>
     <t>Common, Elvish, Giant</t>
   </si>
   <si>
+    <t>https://media-waterdeep.cursecdn.com/avatars/thumbnails/6/342/420/618/636272680339895080.png</t>
+  </si>
+  <si>
     <t>https://media-waterdeep.cursecdn.com/avatars/thumbnails/4790/251/150/194/636768028722530030.png</t>
-  </si>
-  <si>
-    <t>Sud</t>
-  </si>
-  <si>
-    <t>Golliath</t>
-  </si>
-  <si>
-    <t>https://media-waterdeep.cursecdn.com/avatars/thumbnails/6/342/420/618/636272680339895080.png</t>
   </si>
 </sst>
 </file>
@@ -380,14 +380,14 @@
     </font>
     <font/>
     <font>
-      <color rgb="FF000000"/>
-      <name val="&quot;Roboto Condensed&quot;"/>
-    </font>
-    <font>
       <u/>
       <sz val="10.0"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="&quot;Roboto Condensed&quot;"/>
     </font>
     <font>
       <u/>
@@ -515,16 +515,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -566,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -577,71 +577,71 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>1.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>2.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>4.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>4.0</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>2.0</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>1.0</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>1.0</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>1.0</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>4.0</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>4.0</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>1.0</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>4.0</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>1.0</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>1.0</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>1.0</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>1.0</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <v>2.0</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <v>5.0</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>4.0</v>
@@ -787,16 +787,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
@@ -838,7 +838,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -849,71 +849,71 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>1.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>5.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>97</v>
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>1.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>0.0</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>1.0</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>3.0</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>0.0</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>1.0</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>1.0</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>2.0</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>1.0</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>0.0</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>3.0</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>1.0</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>3.0</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>0.0</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <v>5.0</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <v>7.0</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>1.0</v>
@@ -1059,16 +1059,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
@@ -1121,57 +1121,57 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>3.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>0.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>0.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>3.0</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>0.0</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>2.0</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>0.0</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>0.0</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>5.0</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>0.0</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>0.0</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>5.0</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>0.0</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>5.0</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>0.0</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>0.0</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>2.0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <v>0.0</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <v>0.0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>5.0</v>
@@ -1325,16 +1325,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
@@ -1387,57 +1387,57 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>3.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>0.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>2.0</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>0.0</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>3.0</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>3.0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>0.0</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>0.0</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>5.0</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>0.0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>0.0</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>0.0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>0.0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>3.0</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>5.0</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>0.0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <v>0.0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <v>0.0</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>2.0</v>
@@ -1591,16 +1591,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -1653,57 +1653,57 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>-1.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>2.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>3.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>-1.0</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>-1.0</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>2.0</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>5.0</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>1.0</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>2.0</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>3.0</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>1.0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>3.0</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>-1.0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>2.0</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>4.0</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>3.0</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <v>3.0</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <v>3.0</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>1.0</v>
@@ -1857,16 +1857,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -1908,7 +1908,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -1919,57 +1919,57 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>0.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>0.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>0.0</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>0.0</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>0.0</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>0.0</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>0.0</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>0.0</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>0.0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>0.0</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>0.0</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>0.0</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>0.0</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>0.0</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>0.0</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>0.0</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <v>0.0</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <v>0.0</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>0.0</v>
@@ -2123,16 +2123,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -2174,7 +2174,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -2185,57 +2185,57 @@
         <v>4.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>3.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>2.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>0.0</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>4.0</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>-1.0</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>3.0</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>4.0</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>3.0</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>3.0</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>7.0</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>0.0</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>4.0</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>3.0</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>3.0</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>6.0</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>4.0</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <v>2.0</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <v>2.0</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>0.0</v>
@@ -2389,16 +2389,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -2440,7 +2440,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -2451,57 +2451,57 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>4.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>5.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>1.0</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>2.0</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>7.0</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>1.0</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>6.0</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>5.0</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>3.0</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>1.0</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>1.0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>3.0</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>7.0</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>10.0</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>1.0</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <v>3.0</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <v>3.0</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>1.0</v>
@@ -2655,16 +2655,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -2706,7 +2706,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -2717,49 +2717,49 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>3.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>0.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>7.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>75</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>3.0</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>0.0</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>0.0</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>0.0</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>0.0</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>6.0</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>0.0</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>0.0</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>3.0</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>0.0</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>6.0</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>0.0</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>0.0</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>3.0</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <v>4.0</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <v>4.0</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>3.0</v>
@@ -2924,13 +2924,13 @@
         <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
@@ -2972,7 +2972,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -2983,57 +2983,57 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>5.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>0.0</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>0.0</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>3.0</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>3.0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>0.0</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>2.0</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>1.0</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>2.0</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>0.0</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>0.0</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>2.0</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>1.0</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>1.0</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>0.0</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <v>3.0</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <v>7.0</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>0.0</v>
@@ -3187,16 +3187,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -3238,7 +3238,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3249,35 +3249,35 @@
         <v>-1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>1.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>0.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>69</v>
@@ -3285,21 +3285,21 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>2.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>1.0</v>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>-1.0</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>6.0</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>0.0</v>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>-1.0</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>1.0</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>3.0</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>-1.0</v>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>1.0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>2.0</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>4.0</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>0.0</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>0.0</v>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>-1.0</v>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <v>2.0</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <v>2.0</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>4.0</v>
@@ -3456,10 +3456,10 @@
         <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
@@ -3515,21 +3515,21 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>79</v>
@@ -3537,27 +3537,27 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>7.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>80</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>0.0</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>0.0</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>4.0</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>1.0</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>0.0</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>0.0</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>4.0</v>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>0.0</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>0.0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>0.0</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>3.0</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>1.0</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>1.0</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>0.0</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <v>4.0</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <v>4.0</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>0.0</v>
@@ -3719,16 +3719,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
@@ -3781,57 +3781,57 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>3.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>-1.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>3.0</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>2.0</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>-1.0</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>1.0</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>4.0</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>5.0</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>1.0</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>2.0</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>5.0</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>2.0</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>5.0</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>1.0</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>1.0</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>2.0</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <v>-1.0</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <v>-1.0</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>3.0</v>
@@ -3985,16 +3985,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -4036,7 +4036,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -4047,57 +4047,57 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>3.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>-1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>3.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>3.0</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>5.0</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <v>-1.0</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>-1.0</v>
@@ -4129,7 +4129,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>5.0</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>3.0</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>-1.0</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>5.0</v>
@@ -4161,7 +4161,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>3.0</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>3.0</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>3.0</v>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>-1.0</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>-1.0</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>3.0</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <v>3.0</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <v>3.0</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>5.0</v>
